--- a/template/2024/metadata.xlsx
+++ b/template/2024/metadata.xlsx
@@ -904,7 +904,7 @@
   <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
